--- a/data/trans_orig/IP16A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A05-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6B5BCB9-308B-404B-AE99-223A08852C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA6AC8D2-A7BE-4A40-9270-339753B802A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{84B18A98-8420-445D-82E8-F34A47DD72D7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{525C3DE6-6694-416D-BC3A-C4157936BCDE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="294">
   <si>
     <t>Menores según si ha consumido antibióticos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -104,835 +104,823 @@
     <t>6,44%</t>
   </si>
   <si>
-    <t>19,56%</t>
+    <t>20,34%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2012 (Tasa respuesta: 20,72%)</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2012 (Tasa respuesta: 20,72%)</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A34B4-6E9F-4189-8931-744C5B1AF5AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD81AB93-EFBB-4B0D-8596-7D2F21392BC8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2245,7 +2233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3420BF-8093-41FF-8499-A7352D8D20E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF9C885-5048-4108-9314-4385A55384A4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2679,10 +2667,10 @@
         <v>111</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -2691,13 +2679,13 @@
         <v>29946</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2700,13 @@
         <v>87552</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -2727,13 +2715,13 @@
         <v>71772</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>231</v>
@@ -2742,13 +2730,13 @@
         <v>159324</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2804,13 @@
         <v>5679</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2831,13 +2819,13 @@
         <v>6077</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -2846,13 +2834,13 @@
         <v>11756</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2855,13 @@
         <v>33754</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -2882,13 +2870,13 @@
         <v>30327</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>89</v>
@@ -2897,13 +2885,13 @@
         <v>64080</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2959,13 @@
         <v>20465</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -2986,13 +2974,13 @@
         <v>26375</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -3001,13 +2989,13 @@
         <v>46840</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3010,13 @@
         <v>137501</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>176</v>
@@ -3134,7 +3122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1772F30-8A8F-4597-9739-2EC0E01B9AEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995E35E2-8D82-4495-879B-2EF8128C99EE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3881,7 +3869,7 @@
         <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -3890,13 +3878,13 @@
         <v>30953</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,13 +3899,13 @@
         <v>107218</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H17" s="7">
         <v>168</v>
@@ -3926,13 +3914,13 @@
         <v>112566</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
@@ -3941,13 +3929,13 @@
         <v>219784</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,7 +4011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B3EB23-054E-4374-8934-6D4D07345801}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08745773-0ACC-4B4C-BC75-5630883A22B0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4040,7 +4028,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4284,13 +4272,13 @@
         <v>1713</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4299,13 +4287,13 @@
         <v>1810</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4314,13 +4302,13 @@
         <v>3522</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,10 +4323,10 @@
         <v>12653</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -4353,10 +4341,10 @@
         <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -4365,13 +4353,13 @@
         <v>22660</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4427,13 @@
         <v>4018</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -4454,13 +4442,13 @@
         <v>8064</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -4469,13 +4457,13 @@
         <v>12081</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4478,13 @@
         <v>110399</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>132</v>
@@ -4505,13 +4493,13 @@
         <v>93177</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>299</v>
@@ -4520,13 +4508,13 @@
         <v>203577</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4582,13 @@
         <v>3658</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4609,13 +4597,13 @@
         <v>3625</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -4624,13 +4612,13 @@
         <v>7283</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4633,13 @@
         <v>40096</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -4660,13 +4648,13 @@
         <v>37730</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
         <v>112</v>
@@ -4675,13 +4663,13 @@
         <v>77826</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4737,13 @@
         <v>9388</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4764,13 +4752,13 @@
         <v>13498</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -4779,13 +4767,13 @@
         <v>22886</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4788,13 @@
         <v>163149</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>285</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>205</v>
@@ -4815,13 +4803,13 @@
         <v>140914</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>442</v>
@@ -4830,13 +4818,13 @@
         <v>304062</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA6AC8D2-A7BE-4A40-9270-339753B802A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEF4BF40-721C-4390-8F45-FD0AF6ECF19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{525C3DE6-6694-416D-BC3A-C4157936BCDE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3C395544-B974-4D6E-9178-C3925CD45A0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
   <si>
     <t>Menores según si ha consumido antibióticos en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,247 +68,232 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
     <t>10,07%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
   </si>
   <si>
     <t>9,9%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>89,93%</t>
   </si>
   <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>90,1%</t>
   </si>
   <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
     <t>12,89%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
   </si>
   <si>
     <t>87,11%</t>
   </si>
   <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
   </si>
   <si>
     <t>91,1%</t>
   </si>
   <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -317,610 +302,592 @@
     <t>Menores según si ha consumido antibióticos en 2012 (Tasa respuesta: 20,72%)</t>
   </si>
   <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
+    <t>24,69%</t>
   </si>
   <si>
     <t>12,67%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
   </si>
   <si>
     <t>92,55%</t>
   </si>
   <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
+    <t>75,31%</t>
   </si>
   <si>
     <t>87,33%</t>
   </si>
   <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
   </si>
   <si>
     <t>13,34%</t>
   </si>
   <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
   </si>
   <si>
     <t>91,27%</t>
   </si>
   <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos en 2016 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
     <t>87,66%</t>
   </si>
   <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>Menores según si ha consumido antibióticos en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
 </sst>
 </file>
@@ -1332,8 +1299,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD81AB93-EFBB-4B0D-8596-7D2F21392BC8}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13DF2DF-570C-4868-9217-1CA04863EC7C}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1450,10 +1417,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2023</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1465,81 +1432,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1304</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3326</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>20025</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="I5" s="7">
+        <v>18954</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>38979</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,151 +1519,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>20258</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>42305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>1304</v>
+        <v>7832</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>2023</v>
+        <v>8832</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="N7" s="7">
-        <v>3326</v>
+        <v>16664</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="D8" s="7">
-        <v>18954</v>
+        <v>72875</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="I8" s="7">
-        <v>20025</v>
+        <v>78837</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="N8" s="7">
-        <v>38979</v>
+        <v>151712</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,153 +1674,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D9" s="7">
-        <v>20258</v>
+        <v>80707</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I9" s="7">
-        <v>22048</v>
+        <v>87669</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="N9" s="7">
-        <v>42305</v>
+        <v>168376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>8832</v>
+        <v>1301</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>7832</v>
+        <v>4547</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>16664</v>
+        <v>5847</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>78837</v>
+        <v>21250</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="I11" s="7">
-        <v>72875</v>
+        <v>30719</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="N11" s="7">
-        <v>151712</v>
+        <v>51969</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,153 +1829,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>87669</v>
+        <v>22551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>80707</v>
+        <v>35266</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="N12" s="7">
-        <v>168376</v>
+        <v>57816</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>4547</v>
+        <v>11155</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>1301</v>
+        <v>14682</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="N13" s="7">
-        <v>5847</v>
+        <v>25837</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="D14" s="7">
-        <v>30719</v>
+        <v>114150</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="I14" s="7">
-        <v>21250</v>
+        <v>128511</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="N14" s="7">
-        <v>51969</v>
+        <v>242661</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,216 +1984,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D15" s="7">
-        <v>35266</v>
+        <v>125305</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I15" s="7">
-        <v>22551</v>
+        <v>143193</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="N15" s="7">
-        <v>57816</v>
+        <v>268498</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>22</v>
-      </c>
-      <c r="D16" s="7">
-        <v>14682</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="7">
-        <v>17</v>
-      </c>
-      <c r="I16" s="7">
-        <v>11155</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" s="7">
-        <v>39</v>
-      </c>
-      <c r="N16" s="7">
-        <v>25837</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>193</v>
-      </c>
-      <c r="D17" s="7">
-        <v>129237</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="7">
-        <v>173</v>
-      </c>
-      <c r="I17" s="7">
-        <v>114150</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M17" s="7">
-        <v>366</v>
-      </c>
-      <c r="N17" s="7">
-        <v>243387</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>215</v>
-      </c>
-      <c r="D18" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>405</v>
-      </c>
-      <c r="N18" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2233,8 +2050,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF9C885-5048-4108-9314-4385A55384A4}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05915B3-7CB9-4EA3-9FE1-427522E03E07}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2250,7 +2067,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2351,88 +2168,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3834</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1304</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5138</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D5" s="7">
+        <v>19227</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="I5" s="7">
+        <v>16196</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="N5" s="7">
+        <v>35423</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,147 +2270,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="D6" s="7">
+        <v>23061</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="I6" s="7">
+        <v>17500</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="N6" s="7">
+        <v>40561</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>1304</v>
+        <v>16464</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>3834</v>
+        <v>13482</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="N7" s="7">
-        <v>5138</v>
+        <v>29946</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="D8" s="7">
-        <v>16196</v>
+        <v>71772</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="I8" s="7">
-        <v>19227</v>
+        <v>87552</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
-        <v>50</v>
+        <v>231</v>
       </c>
       <c r="N8" s="7">
-        <v>35423</v>
+        <v>159324</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,153 +2425,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="D9" s="7">
-        <v>17500</v>
+        <v>88236</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="I9" s="7">
-        <v>23061</v>
+        <v>101034</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="N9" s="7">
-        <v>40561</v>
+        <v>189270</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>13482</v>
+        <v>6077</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>16464</v>
+        <v>5679</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>29946</v>
+        <v>11756</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>87552</v>
+        <v>30327</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="I11" s="7">
-        <v>71772</v>
+        <v>33754</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="N11" s="7">
-        <v>159324</v>
+        <v>64080</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,153 +2580,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>101034</v>
+        <v>36404</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>88236</v>
+        <v>39433</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="N12" s="7">
-        <v>189270</v>
+        <v>75836</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>5679</v>
+        <v>26375</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>6077</v>
+        <v>20465</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="N13" s="7">
-        <v>11756</v>
+        <v>46840</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="D14" s="7">
-        <v>33754</v>
+        <v>121326</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="I14" s="7">
-        <v>30327</v>
+        <v>137501</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
-        <v>89</v>
+        <v>370</v>
       </c>
       <c r="N14" s="7">
-        <v>64080</v>
+        <v>258827</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,216 +2735,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="D15" s="7">
-        <v>39433</v>
+        <v>147701</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="I15" s="7">
-        <v>36404</v>
+        <v>157966</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>105</v>
+        <v>435</v>
       </c>
       <c r="N15" s="7">
-        <v>75836</v>
+        <v>305667</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>28</v>
-      </c>
-      <c r="D16" s="7">
-        <v>20465</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="7">
-        <v>37</v>
-      </c>
-      <c r="I16" s="7">
-        <v>26375</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M16" s="7">
-        <v>65</v>
-      </c>
-      <c r="N16" s="7">
-        <v>46840</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>194</v>
-      </c>
-      <c r="D17" s="7">
-        <v>137501</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="7">
-        <v>176</v>
-      </c>
-      <c r="I17" s="7">
-        <v>121326</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M17" s="7">
-        <v>370</v>
-      </c>
-      <c r="N17" s="7">
-        <v>258827</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>222</v>
-      </c>
-      <c r="D18" s="7">
-        <v>157966</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>213</v>
-      </c>
-      <c r="I18" s="7">
-        <v>147701</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>435</v>
-      </c>
-      <c r="N18" s="7">
-        <v>305667</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3122,8 +2801,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995E35E2-8D82-4495-879B-2EF8128C99EE}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA7BE05-CC87-4F33-812D-56AB16179834}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3139,7 +2818,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3240,88 +2919,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1964</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>665</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2629</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D5" s="7">
+        <v>13727</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8121</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="N5" s="7">
+        <v>21848</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,147 +3021,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15691</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8786</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N6" s="7">
+        <v>24477</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>665</v>
+        <v>8737</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>1964</v>
+        <v>11031</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>2629</v>
+        <v>19768</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D8" s="7">
-        <v>8121</v>
+        <v>74242</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="I8" s="7">
-        <v>13727</v>
+        <v>74589</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="N8" s="7">
-        <v>21848</v>
+        <v>148831</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,153 +3176,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="D9" s="7">
-        <v>8786</v>
+        <v>82979</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I9" s="7">
-        <v>15691</v>
+        <v>85620</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="N9" s="7">
-        <v>24477</v>
+        <v>168599</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>11031</v>
+        <v>4194</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>8737</v>
+        <v>4362</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>19768</v>
+        <v>8557</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>74589</v>
+        <v>24598</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="I11" s="7">
-        <v>74242</v>
+        <v>24508</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="N11" s="7">
-        <v>148831</v>
+        <v>49104</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,153 +3331,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="D12" s="7">
-        <v>85620</v>
+        <v>28792</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>82979</v>
+        <v>28870</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>168599</v>
+        <v>57661</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>4362</v>
+        <v>14895</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>4194</v>
+        <v>16058</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="N13" s="7">
-        <v>8557</v>
+        <v>30953</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="D14" s="7">
-        <v>24508</v>
+        <v>112566</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="I14" s="7">
-        <v>24598</v>
+        <v>107218</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
-        <v>72</v>
+        <v>323</v>
       </c>
       <c r="N14" s="7">
-        <v>49104</v>
+        <v>219784</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,216 +3486,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="D15" s="7">
-        <v>28870</v>
+        <v>127461</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="I15" s="7">
-        <v>28792</v>
+        <v>123276</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="N15" s="7">
-        <v>57661</v>
+        <v>250737</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>24</v>
-      </c>
-      <c r="D16" s="7">
-        <v>16058</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H16" s="7">
-        <v>24</v>
-      </c>
-      <c r="I16" s="7">
-        <v>14895</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M16" s="7">
-        <v>48</v>
-      </c>
-      <c r="N16" s="7">
-        <v>30953</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>155</v>
-      </c>
-      <c r="D17" s="7">
-        <v>107218</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H17" s="7">
-        <v>168</v>
-      </c>
-      <c r="I17" s="7">
-        <v>112566</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M17" s="7">
-        <v>323</v>
-      </c>
-      <c r="N17" s="7">
-        <v>219784</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>179</v>
-      </c>
-      <c r="D18" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>192</v>
-      </c>
-      <c r="I18" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>371</v>
-      </c>
-      <c r="N18" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4011,8 +3552,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08745773-0ACC-4B4C-BC75-5630883A22B0}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B8558D-F202-4340-BBEF-AAE49F658B35}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4028,7 +3569,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4129,88 +3670,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1843</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1800</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3643</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <v>13387</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I5" s="7">
+        <v>13867</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="N5" s="7">
+        <v>27254</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,147 +3772,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15230</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15667</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="N6" s="7">
+        <v>30897</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>1713</v>
+        <v>9533</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>1810</v>
+        <v>4095</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>3522</v>
+        <v>13628</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="D8" s="7">
-        <v>12653</v>
+        <v>111310</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="I8" s="7">
-        <v>10006</v>
+        <v>115929</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
-        <v>31</v>
+        <v>299</v>
       </c>
       <c r="N8" s="7">
-        <v>22660</v>
+        <v>227239</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,153 +3927,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="D9" s="7">
-        <v>14366</v>
+        <v>120843</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I9" s="7">
-        <v>11816</v>
+        <v>120024</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>36</v>
+        <v>318</v>
       </c>
       <c r="N9" s="7">
-        <v>26182</v>
+        <v>240867</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>4018</v>
+        <v>3637</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>8064</v>
+        <v>3903</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>12081</v>
+        <v>7540</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7">
-        <v>110399</v>
+        <v>38005</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>93177</v>
+        <v>42608</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
-        <v>299</v>
+        <v>112</v>
       </c>
       <c r="N11" s="7">
-        <v>203577</v>
+        <v>80613</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,153 +4082,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7">
-        <v>114417</v>
+        <v>41642</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="I12" s="7">
-        <v>101241</v>
+        <v>46511</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="N12" s="7">
-        <v>215658</v>
+        <v>88153</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>3658</v>
+        <v>15013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>3625</v>
+        <v>9798</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>7283</v>
+        <v>24812</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="D14" s="7">
-        <v>40096</v>
+        <v>162702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="I14" s="7">
-        <v>37730</v>
+        <v>172403</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
-        <v>112</v>
+        <v>442</v>
       </c>
       <c r="N14" s="7">
-        <v>77826</v>
+        <v>335104</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,216 +4237,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="D15" s="7">
-        <v>43754</v>
+        <v>177715</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="I15" s="7">
-        <v>41355</v>
+        <v>182201</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>122</v>
+        <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>85109</v>
+        <v>359916</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>13</v>
-      </c>
-      <c r="D16" s="7">
-        <v>9388</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H16" s="7">
-        <v>21</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13498</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M16" s="7">
-        <v>34</v>
-      </c>
-      <c r="N16" s="7">
-        <v>22886</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>237</v>
-      </c>
-      <c r="D17" s="7">
-        <v>163149</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H17" s="7">
-        <v>205</v>
-      </c>
-      <c r="I17" s="7">
-        <v>140914</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="M17" s="7">
-        <v>442</v>
-      </c>
-      <c r="N17" s="7">
-        <v>304062</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>250</v>
-      </c>
-      <c r="D18" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>226</v>
-      </c>
-      <c r="I18" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>476</v>
-      </c>
-      <c r="N18" s="7">
-        <v>326948</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
